--- a/Dataset/Folds/Fold_3/Excel/112.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3745" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4177" uniqueCount="582">
   <si>
     <t>Doi</t>
   </si>
@@ -1860,6 +1860,206 @@
   </si>
   <si>
     <t>[Leora R.%Feldstein%NULL%1,                            Erica B.%Rose%NULL%1,                            Steven M.%Horwitz%NULL%1,                            Jennifer P.%Collins%NULL%1,                            Margaret M.%Newhams%NULL%1,                            Mary Beth F.%Son%NULL%1,                            Jane W.%Newburger%NULL%1,                            Lawrence C.%Kleinman%NULL%1,                            Sabrina M.%Heidemann%NULL%1,                            Amarilis A.%Martin%NULL%2,                            Amarilis A.%Martin%NULL%0,                            Aalok R.%Singh%NULL%1,                            Simon%Li%NULL%1,                            Keiko M.%Tarquinio%NULL%1,                            Preeti%Jaggi%NULL%1,                            Matthew E.%Oster%NULL%1,                            Sheemon P.%Zackai%NULL%1,                            Jennifer%Gillen%NULL%1,                            Adam J.%Ratner%NULL%1,                            Rowan F.%Walsh%NULL%1,                            Julie C.%Fitzgerald%NULL%1,                            Michael A.%Keenaghan%NULL%1,                            Hussam%Alharash%NULL%1,                            Sule%Doymaz%NULL%1,                            Katharine N.%Clouser%NULL%1,                            John S.%Giuliano%NULL%1,                            Anjali%Gupta%NULL%1,                            Robert M.%Parker%NULL%1,                            Aline B.%Maddux%NULL%1,                            Vinod%Havalad%NULL%1,                            Stacy%Ramsingh%NULL%1,                            Hulya%Bukulmez%NULL%1,                            Tamara T.%Bradford%NULL%1,                            Lincoln S.%Smith%NULL%1,                            Mark W.%Tenforde%NULL%1,                            Christopher L.%Carroll%NULL%1,                            Becky J.%Riggs%NULL%1,                            Shira J.%Gertz%NULL%1,                            Ariel%Daube%NULL%1,                            Amanda%Lansell%NULL%2,                            Amanda%Lansell%NULL%0,                            Alvaro%Coronado Munoz%NULL%1,                            Charlotte V.%Hobbs%NULL%2,                            Charlotte V.%Hobbs%NULL%0,                            Kimberly L.%Marohn%NULL%1,                            Natasha B.%Halasa%NULL%1,                            Manish M.%Patel%NULL%1,                            Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                             Angelo%Mazza%NULL%1,                             Annalisa%Gervasoni%NULL%1,                             Laura%Martelli%NULL%1,                             Maurizio%Ruggeri%NULL%1,                             Matteo%Ciuffreda%NULL%1,                             Ezio%Bonanomi%NULL%1,                             Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                             Scott I.%Aydin%NULL%1,                             Kim R.%Derespina%NULL%0,                             Prerna B.%Bansal%NULL%1,                             Shanna%Kowalsky%NULL%2,                             Rebecca%Trachtman%NULL%2,                             Jennifer K.%Gillen%NULL%1,                             Michelle M.%Perez%NULL%1,                             Sara H.%Soshnick%NULL%1,                             Edward E.%Conway%NULL%1,                             Asher%Bercow%NULL%1,                             Howard S.%Seiden%NULL%1,                             Robert H.%Pass%NULL%1,                             Henry M.%Ushay%NULL%0,                             George%Ofori-Amanfo%NULL%1,                             Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                             Amanda%Cantor%NULL%1,                             Philip%Zachariah%NULL%1,                             Danielle%Ahn%NULL%1,                             Mercedes%Martinez%NULL%1,                             Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                             John C.%Smulian%NULL%1,                             John A.%Lednicky%NULL%1,                             Tony S.%Wen%NULL%1,                             Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                             Emilia H.%Koumans%NULL%1,                             Eric J.%Chow%NULL%1,                             Elizabeth M.%Rosenthal%NULL%2,                             Elizabeth M.%Rosenthal%NULL%0,                             Alison%Muse%NULL%2,                             Alison%Muse%NULL%0,                             Jemma%Rowlands%NULL%1,                             Meredith A.%Barranco%NULL%1,                             Angela M.%Maxted%NULL%1,                             Eli S.%Rosenberg%NULL%1,                             Delia%Easton%NULL%1,                             Tomoko%Udo%NULL%1,                             Jessica%Kumar%NULL%1,                             Wendy%Pulver%NULL%1,                             Lou%Smith%NULL%1,                             Brad%Hutton%NULL%1,                             Debra%Blog%NULL%1,                             Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                             Heba%Elbaaly%NULL%2,                             Heba%Elbaaly%NULL%0,                             Catriona E. L.%Reid%NULL%2,                             Catriona E. L.%Reid%NULL%0,                             Rui M. F.%Santos%NULL%2,                             Rui M. F.%Santos%NULL%0,                             Vinay%Shivamurthy%NULL%2,                             Vinay%Shivamurthy%NULL%0,                             James%Wong%NULL%1,                             K. Haran%Jogeesvaran%NULL%2,                             K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                             Clément%Poirault%NULL%1,                             Alice%Corsia%NULL%1,                             Fanny%Bajolle%NULL%2,                             Jacques%Fourgeaud%NULL%1,                             François%Angoulvant%NULL%1,                             Agathe%Debray%NULL%1,                             Romain%Basmaci%NULL%2,                             Elodie%Salvador%NULL%1,                             Sandra%Biscardi%NULL%1,                             Pierre%Frange%NULL%1,                             Martin%Chalumeau%NULL%1,                             Jean-Laurent%Casanova%NULL%2,                             Jean-Laurent%Casanova%NULL%0,                             Jérémie F%Cohen%NULL%1,                             Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                             Charlotte%Borocco%NULL%1,                             Naim%Ouldali%NULL%1,                             Marion%Caseris%NULL%2,                             Romain%Basmaci%NULL%0,                             Noémie%Lachaume%NULL%1,                             Philippe%Bensaid%NULL%1,                             Samia%Pichard%NULL%1,                             Hanane%Kouider%NULL%1,                             Guillaume%Morelle%NULL%1,                             Irina%Craiu%NULL%1,                             Corinne%Pondarre%NULL%1,                             Anna%Deho%NULL%1,                             Arielle%Maroni%NULL%1,                             Mehdi%Oualha%NULL%2,                             Zahir%Amoura%NULL%1,                             Julien%Haroche%NULL%1,                             Juliette%Chommeloux%NULL%1,                             Fanny%Bajolle%NULL%0,                             Constance%Beyler%NULL%2,                             Stéphane%Bonacorsi%NULL%1,                             Guislaine%Carcelain%NULL%1,                             Isabelle%Koné-Paut%NULL%1,                             Brigitte%Bader-Meunier%NULL%2,                             Brigitte%Bader-Meunier%NULL%0,                             Albert%Faye%NULL%3,                             Albert%Faye%NULL%0,                             Ulrich%Meinzer%NULL%2,                             Caroline%Galeotti%NULL%1,                             Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                             Oscar%Nolan%NULL%1,                             Chui Yi%Lai%NULL%1,                             Nanda%Prabhu%NULL%1,                             Raghu%Krishnamurthy%NULL%1,                             Alex G.%Richter%NULL%1,                             Deepthi%Jyothish%NULL%1,                             Hari Krishnan%Kanthimathinathan%NULL%2,                             Steven B.%Welch%NULL%1,                             Scott%Hackett%NULL%1,                             Eslam%Al-Abadi%NULL%1,                             Barnaby R.%Scholefield%NULL%1,                             Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                             Julie%Starck%NULL%1,                             Michael%Levy%NULL%1,                             Clémence%Marais%NULL%1,                             Judith%Chareyre%NULL%1,                             Diala%Khraiche%NULL%1,                             Marianne%Leruez-Ville%NULL%1,                             Pierre%Quartier%NULL%1,                             Pierre Louis%Léger%NULL%1,                             Guillaume%Geslain%NULL%1,                             Nada%Semaan%NULL%1,                             Florence%Moulin%NULL%1,                             Matthieu%Bendavid%NULL%1,                             Sandrine%Jean%NULL%1,                             Géraldine%Poncelet%NULL%1,                             Sylvain%Renolleau%NULL%1,                             Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                             Esra%Akkoyun%NULL%1,                             Eudys%Briceno‐Brito%NULL%1,                             Shanna%Kowalsky%NULL%0,                             James%Reed%NULL%1,                             Roberto%Posada%NULL%1,                             Emilia Mia%Sordillo%NULL%1,                             Michael%Tosi%NULL%1,                             Rebecca%Trachtman%NULL%0,                             Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                             Claire%Evans%NULL%1,                             Hari Krishnan%Kanthimathinathan%NULL%0,                             Jon%Lillie%NULL%1,                             Joseph%Brierley%NULL%1,                             Gareth%Waters%NULL%1,                             Mae%Johnson%NULL%1,                             Benedict%Griffiths%NULL%1,                             Pascale%du Pré%NULL%1,                             Zoha%Mohammad%NULL%1,                             Akash%Deep%NULL%1,                             Stephen%Playfor%NULL%1,                             Davinder%Singh%NULL%1,                             David%Inwald%NULL%1,                             Michelle%Jardine%NULL%1,                             Oliver%Ross%NULL%1,                             Nayan%Shetty%NULL%1,                             Mark%Worrall%NULL%1,                             Ruchi%Sinha%NULL%1,                             Ashwani%Koul%NULL%1,                             Elizabeth%Whittaker%NULL%1,                             Harish%Vyas%NULL%1,                             Barnaby R%Scholefield%NULL%1,                             Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                             Marie%Pouletty%NULL%1,                             Patricia%Mariani%NULL%1,                             Constance%Beyler%NULL%0,                             Audrey%Blachier%NULL%1,                             Stephane%Bonacorsi%NULL%1,                             Kostas%Danis%NULL%1,                             Maryline%Chomton%NULL%1,                             Laure%Maurice%NULL%1,                             Fleur%Le Bourgeois%NULL%1,                             Marion%Caseris%NULL%0,                             Jean%Gaschignard%NULL%1,                             Julie%Poline%NULL%1,                             Robert%Cohen%NULL%1,                             Luigi%Titomanlio%NULL%1,                             Albert%Faye%NULL%0,                             Isabelle%Melki%NULL%0,                             Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                             Erica B.%Rose%NULL%1,                             Steven M.%Horwitz%NULL%1,                             Jennifer P.%Collins%NULL%1,                             Margaret M.%Newhams%NULL%1,                             Mary Beth F.%Son%NULL%1,                             Jane W.%Newburger%NULL%1,                             Lawrence C.%Kleinman%NULL%1,                             Sabrina M.%Heidemann%NULL%1,                             Amarilis A.%Martin%NULL%2,                             Amarilis A.%Martin%NULL%0,                             Aalok R.%Singh%NULL%1,                             Simon%Li%NULL%1,                             Keiko M.%Tarquinio%NULL%1,                             Preeti%Jaggi%NULL%1,                             Matthew E.%Oster%NULL%1,                             Sheemon P.%Zackai%NULL%1,                             Jennifer%Gillen%NULL%1,                             Adam J.%Ratner%NULL%1,                             Rowan F.%Walsh%NULL%1,                             Julie C.%Fitzgerald%NULL%1,                             Michael A.%Keenaghan%NULL%1,                             Hussam%Alharash%NULL%1,                             Sule%Doymaz%NULL%1,                             Katharine N.%Clouser%NULL%1,                             John S.%Giuliano%NULL%1,                             Anjali%Gupta%NULL%1,                             Robert M.%Parker%NULL%1,                             Aline B.%Maddux%NULL%1,                             Vinod%Havalad%NULL%1,                             Stacy%Ramsingh%NULL%1,                             Hulya%Bukulmez%NULL%1,                             Tamara T.%Bradford%NULL%1,                             Lincoln S.%Smith%NULL%1,                             Mark W.%Tenforde%NULL%1,                             Christopher L.%Carroll%NULL%1,                             Becky J.%Riggs%NULL%1,                             Shira J.%Gertz%NULL%1,                             Ariel%Daube%NULL%1,                             Amanda%Lansell%NULL%2,                             Amanda%Lansell%NULL%0,                             Alvaro%Coronado Munoz%NULL%1,                             Charlotte V.%Hobbs%NULL%2,                             Charlotte V.%Hobbs%NULL%0,                             Kimberly L.%Marohn%NULL%1,                             Natasha B.%Halasa%NULL%1,                             Manish M.%Patel%NULL%1,                             Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%1,                              Angelo%Mazza%NULL%1,                              Annalisa%Gervasoni%NULL%1,                              Laura%Martelli%NULL%1,                              Maurizio%Ruggeri%NULL%1,                              Matteo%Ciuffreda%NULL%1,                              Ezio%Bonanomi%NULL%1,                              Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%1,                              Scott I.%Aydin%NULL%1,                              Kim R.%Derespina%NULL%0,                              Prerna B.%Bansal%NULL%1,                              Shanna%Kowalsky%NULL%2,                              Rebecca%Trachtman%NULL%2,                              Jennifer K.%Gillen%NULL%1,                              Michelle M.%Perez%NULL%1,                              Sara H.%Soshnick%NULL%1,                              Edward E.%Conway%NULL%1,                              Asher%Bercow%NULL%1,                              Howard S.%Seiden%NULL%1,                              Robert H.%Pass%NULL%1,                              Henry M.%Ushay%NULL%0,                              George%Ofori-Amanfo%NULL%1,                              Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%1,                              Amanda%Cantor%NULL%1,                              Philip%Zachariah%NULL%1,                              Danielle%Ahn%NULL%1,                              Mercedes%Martinez%NULL%1,                              Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%1,                              John C.%Smulian%NULL%1,                              John A.%Lednicky%NULL%1,                              Tony S.%Wen%NULL%1,                              Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%1,                              Emilia H.%Koumans%NULL%1,                              Eric J.%Chow%NULL%1,                              Elizabeth M.%Rosenthal%NULL%2,                              Elizabeth M.%Rosenthal%NULL%0,                              Alison%Muse%NULL%2,                              Alison%Muse%NULL%0,                              Jemma%Rowlands%NULL%1,                              Meredith A.%Barranco%NULL%1,                              Angela M.%Maxted%NULL%1,                              Eli S.%Rosenberg%NULL%1,                              Delia%Easton%NULL%1,                              Tomoko%Udo%NULL%1,                              Jessica%Kumar%NULL%1,                              Wendy%Pulver%NULL%1,                              Lou%Smith%NULL%1,                              Brad%Hutton%NULL%1,                              Debra%Blog%NULL%1,                              Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%1,                              Heba%Elbaaly%NULL%2,                              Heba%Elbaaly%NULL%0,                              Catriona E. L.%Reid%NULL%2,                              Catriona E. L.%Reid%NULL%0,                              Rui M. F.%Santos%NULL%2,                              Rui M. F.%Santos%NULL%0,                              Vinay%Shivamurthy%NULL%2,                              Vinay%Shivamurthy%NULL%0,                              James%Wong%NULL%1,                              K. Haran%Jogeesvaran%NULL%2,                              K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%1,                              Clément%Poirault%NULL%1,                              Alice%Corsia%NULL%1,                              Fanny%Bajolle%NULL%2,                              Jacques%Fourgeaud%NULL%1,                              François%Angoulvant%NULL%1,                              Agathe%Debray%NULL%1,                              Romain%Basmaci%NULL%2,                              Elodie%Salvador%NULL%1,                              Sandra%Biscardi%NULL%1,                              Pierre%Frange%NULL%1,                              Martin%Chalumeau%NULL%1,                              Jean-Laurent%Casanova%NULL%2,                              Jean-Laurent%Casanova%NULL%0,                              Jérémie F%Cohen%NULL%1,                              Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%1,                              Charlotte%Borocco%NULL%1,                              Naim%Ouldali%NULL%1,                              Marion%Caseris%NULL%2,                              Romain%Basmaci%NULL%0,                              Noémie%Lachaume%NULL%1,                              Philippe%Bensaid%NULL%1,                              Samia%Pichard%NULL%1,                              Hanane%Kouider%NULL%1,                              Guillaume%Morelle%NULL%1,                              Irina%Craiu%NULL%1,                              Corinne%Pondarre%NULL%1,                              Anna%Deho%NULL%1,                              Arielle%Maroni%NULL%1,                              Mehdi%Oualha%NULL%2,                              Zahir%Amoura%NULL%1,                              Julien%Haroche%NULL%1,                              Juliette%Chommeloux%NULL%1,                              Fanny%Bajolle%NULL%0,                              Constance%Beyler%NULL%2,                              Stéphane%Bonacorsi%NULL%1,                              Guislaine%Carcelain%NULL%1,                              Isabelle%Koné-Paut%NULL%1,                              Brigitte%Bader-Meunier%NULL%2,                              Brigitte%Bader-Meunier%NULL%0,                              Albert%Faye%NULL%3,                              Albert%Faye%NULL%0,                              Ulrich%Meinzer%NULL%2,                              Caroline%Galeotti%NULL%1,                              Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%1,                              Oscar%Nolan%NULL%1,                              Chui Yi%Lai%NULL%1,                              Nanda%Prabhu%NULL%1,                              Raghu%Krishnamurthy%NULL%1,                              Alex G.%Richter%NULL%1,                              Deepthi%Jyothish%NULL%1,                              Hari Krishnan%Kanthimathinathan%NULL%2,                              Steven B.%Welch%NULL%1,                              Scott%Hackett%NULL%1,                              Eslam%Al-Abadi%NULL%1,                              Barnaby R.%Scholefield%NULL%1,                              Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0,                              Julie%Starck%NULL%1,                              Michael%Levy%NULL%1,                              Clémence%Marais%NULL%1,                              Judith%Chareyre%NULL%1,                              Diala%Khraiche%NULL%1,                              Marianne%Leruez-Ville%NULL%1,                              Pierre%Quartier%NULL%1,                              Pierre Louis%Léger%NULL%1,                              Guillaume%Geslain%NULL%1,                              Nada%Semaan%NULL%1,                              Florence%Moulin%NULL%1,                              Matthieu%Bendavid%NULL%1,                              Sandrine%Jean%NULL%1,                              Géraldine%Poncelet%NULL%1,                              Sylvain%Renolleau%NULL%1,                              Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%1,                              Esra%Akkoyun%NULL%1,                              Eudys%Briceno‐Brito%NULL%1,                              Shanna%Kowalsky%NULL%0,                              James%Reed%NULL%1,                              Roberto%Posada%NULL%1,                              Emilia Mia%Sordillo%NULL%1,                              Michael%Tosi%NULL%1,                              Rebecca%Trachtman%NULL%0,                              Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%1,                              Claire%Evans%NULL%1,                              Hari Krishnan%Kanthimathinathan%NULL%0,                              Jon%Lillie%NULL%1,                              Joseph%Brierley%NULL%1,                              Gareth%Waters%NULL%1,                              Mae%Johnson%NULL%1,                              Benedict%Griffiths%NULL%1,                              Pascale%du Pré%NULL%1,                              Zoha%Mohammad%NULL%1,                              Akash%Deep%NULL%1,                              Stephen%Playfor%NULL%1,                              Davinder%Singh%NULL%1,                              David%Inwald%NULL%1,                              Michelle%Jardine%NULL%1,                              Oliver%Ross%NULL%1,                              Nayan%Shetty%NULL%1,                              Mark%Worrall%NULL%1,                              Ruchi%Sinha%NULL%1,                              Ashwani%Koul%NULL%1,                              Elizabeth%Whittaker%NULL%1,                              Harish%Vyas%NULL%1,                              Barnaby R%Scholefield%NULL%1,                              Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naim%Ouldali%NULL%1,                              Marie%Pouletty%NULL%1,                              Patricia%Mariani%NULL%1,                              Constance%Beyler%NULL%0,                              Audrey%Blachier%NULL%1,                              Stephane%Bonacorsi%NULL%1,                              Kostas%Danis%NULL%1,                              Maryline%Chomton%NULL%1,                              Laure%Maurice%NULL%1,                              Fleur%Le Bourgeois%NULL%1,                              Marion%Caseris%NULL%0,                              Jean%Gaschignard%NULL%1,                              Julie%Poline%NULL%1,                              Robert%Cohen%NULL%1,                              Luigi%Titomanlio%NULL%1,                              Albert%Faye%NULL%0,                              Isabelle%Melki%NULL%0,                              Ulrich%Meinzer%ulrich.meinzer@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%1,                              Erica B.%Rose%NULL%1,                              Steven M.%Horwitz%NULL%1,                              Jennifer P.%Collins%NULL%1,                              Margaret M.%Newhams%NULL%1,                              Mary Beth F.%Son%NULL%1,                              Jane W.%Newburger%NULL%1,                              Lawrence C.%Kleinman%NULL%1,                              Sabrina M.%Heidemann%NULL%1,                              Amarilis A.%Martin%NULL%2,                              Amarilis A.%Martin%NULL%0,                              Aalok R.%Singh%NULL%1,                              Simon%Li%NULL%1,                              Keiko M.%Tarquinio%NULL%1,                              Preeti%Jaggi%NULL%1,                              Matthew E.%Oster%NULL%1,                              Sheemon P.%Zackai%NULL%1,                              Jennifer%Gillen%NULL%1,                              Adam J.%Ratner%NULL%1,                              Rowan F.%Walsh%NULL%1,                              Julie C.%Fitzgerald%NULL%1,                              Michael A.%Keenaghan%NULL%1,                              Hussam%Alharash%NULL%1,                              Sule%Doymaz%NULL%1,                              Katharine N.%Clouser%NULL%1,                              John S.%Giuliano%NULL%1,                              Anjali%Gupta%NULL%1,                              Robert M.%Parker%NULL%1,                              Aline B.%Maddux%NULL%1,                              Vinod%Havalad%NULL%1,                              Stacy%Ramsingh%NULL%1,                              Hulya%Bukulmez%NULL%1,                              Tamara T.%Bradford%NULL%1,                              Lincoln S.%Smith%NULL%1,                              Mark W.%Tenforde%NULL%1,                              Christopher L.%Carroll%NULL%1,                              Becky J.%Riggs%NULL%1,                              Shira J.%Gertz%NULL%1,                              Ariel%Daube%NULL%1,                              Amanda%Lansell%NULL%2,                              Amanda%Lansell%NULL%0,                              Alvaro%Coronado Munoz%NULL%1,                              Charlotte V.%Hobbs%NULL%2,                              Charlotte V.%Hobbs%NULL%0,                              Kimberly L.%Marohn%NULL%1,                              Natasha B.%Halasa%NULL%1,                              Manish M.%Patel%NULL%1,                              Adrienne G.%Randolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lucio%Verdoni%NULL%0, Angelo%Mazza%NULL%1, Annalisa%Gervasoni%NULL%1, Laura%Martelli%NULL%1, Maurizio%Ruggeri%NULL%1, Matteo%Ciuffreda%NULL%1, Ezio%Bonanomi%NULL%1, Lorenzo%D'Antiga%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Shubhi%Kaushik%NULL%0, Scott I.%Aydin%NULL%1, Kim R.%Derespina%NULL%0, Prerna B.%Bansal%NULL%1, Shanna%Kowalsky%NULL%2, Rebecca%Trachtman%NULL%2, Jennifer K.%Gillen%NULL%1, Michelle M.%Perez%NULL%1, Sara H.%Soshnick%NULL%1, Edward E.%Conway%NULL%1, Asher%Bercow%NULL%1, Howard S.%Seiden%NULL%1, Robert H.%Pass%NULL%1, Henry M.%Ushay%NULL%0, George%Ofori-Amanfo%NULL%1, Shivanand S.%Medar%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Jonathan%Miller%NULL%0, Amanda%Cantor%NULL%1, Philip%Zachariah%NULL%0, Danielle%Ahn%NULL%1, Mercedes%Martinez%NULL%1, Kara Gross%Margolis%NULL%1]</t>
+  </si>
+  <si>
+    <t>by the AGA Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronavirus disease 2019 is an emerging disease with a rapid increase in cases and deaths since its first identification in Wuhan, China, in December 2019. Limited data are available about coronavirus disease 2019 during pregnancy; however, information on illnesses associated with other highly pathogenic coronaviruses (ie, severe acute respiratory syndrome and the Middle East respiratory syndrome) might provide insights into coronavirus disease 2019’s effects during pregnancy.
+ Coronaviruses cause illness ranging in severity from the common cold to severe respiratory illness and death.
+ Currently the primary epidemiologic risk factors for coronavirus disease 2019 include travel from mainland China (especially Hubei Province) or close contact with infected individuals within 14 days of symptom onset.
+ Data suggest an incubation period of ∼5 days (range, 2–14 days).
+ Average age of hospitalized patients has been 49–56 years, with a third to half with an underlying illness.
+ Children have been rarely reported.
+ Men were more frequent among hospitalized cases (54–73%).
+ Frequent manifestations include fever, cough, myalgia, headache, and diarrhea.
+ Abnormal testing includes abnormalities on chest radiographic imaging, lymphopenia, leukopenia, and thrombocytopenia.
+ Initial reports suggest that acute respiratory distress syndrome develops in 17–29% of hospitalized patients.
+ Overall case fatality rate appears to be ∼1%; however, early data may overestimate this rate.
+ In 2 reports describing 18 pregnancies with coronavirus disease 2019, all were infected in the third trimester, and clinical findings were similar to those in nonpregnant adults.
+ Fetal distress and preterm delivery were seen in some cases.
+ All but 2 pregnancies were cesarean deliveries and no evidence of in utero transmission was seen.
+</t>
+  </si>
+  <si>
+    <t>[Sonja A.%Rasmussen%skr9@ufl.edu%0, John C.%Smulian%NULL%1, John A.%Lednicky%NULL%1, Tony S.%Wen%NULL%1, Denise J.%Jamieson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth M.%Dufort%NULL%0, Emilia H.%Koumans%NULL%1, Eric J.%Chow%NULL%0, Elizabeth M.%Rosenthal%NULL%2, Elizabeth M.%Rosenthal%NULL%0, Alison%Muse%NULL%0, Alison%Muse%NULL%0, Jemma%Rowlands%NULL%1, Meredith A.%Barranco%NULL%1, Angela M.%Maxted%NULL%1, Eli S.%Rosenberg%NULL%1, Delia%Easton%NULL%1, Tomoko%Udo%NULL%1, Jessica%Kumar%NULL%1, Wendy%Pulver%NULL%1, Lou%Smith%NULL%1, Brad%Hutton%NULL%1, Debra%Blog%NULL%1, Howard%Zucker%NULL%1]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This case series examines the spectrum of imaging findings at chest radiography, US, CT, and MRI in 35 children admitted to a tertiary pediatric hospital in April and May 2020 with a post–coronavirus disease 2019 inflammatory condition known as multisystem inflammatory syndrome in children.
+ The constellation of findings includes airway inflammation and rapid development of pulmonary edema on thoracic images, coronary artery aneurysms, and extensive right iliac fossa inflammatory changes on abdominal images.
+ Awareness of this emerging condition and the expected multi-organ imaging findings will aid radiologists in the assessment of these complex cases.
+</t>
+  </si>
+  <si>
+    <t>[Shema%Hameed%shema.hameed@gstt.nhs.uk%0, Heba%Elbaaly%NULL%2, Heba%Elbaaly%NULL%0, Catriona E. L.%Reid%NULL%2, Catriona E. L.%Reid%NULL%0, Rui M. F.%Santos%NULL%2, Rui M. F.%Santos%NULL%0, Vinay%Shivamurthy%NULL%2, Vinay%Shivamurthy%NULL%0, James%Wong%NULL%1, K. Haran%Jogeesvaran%NULL%2, K. Haran%Jogeesvaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>Radiological Society of North America</t>
+  </si>
+  <si>
+    <t>[Julie%Toubiana%NULL%0, Clément%Poirault%NULL%1, Alice%Corsia%NULL%1, Fanny%Bajolle%NULL%2, Jacques%Fourgeaud%NULL%1, François%Angoulvant%NULL%1, Agathe%Debray%NULL%1, Romain%Basmaci%NULL%2, Elodie%Salvador%NULL%1, Sandra%Biscardi%NULL%1, Pierre%Frange%NULL%1, Martin%Chalumeau%NULL%0, Jean-Laurent%Casanova%NULL%2, Jean-Laurent%Casanova%NULL%0, Jérémie F%Cohen%NULL%1, Slimane%Allali%NULL%1]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Marie%Pouletty%NULL%0, Charlotte%Borocco%NULL%1, Naim%Ouldali%NULL%0, Marion%Caseris%NULL%2, Romain%Basmaci%NULL%0, Noémie%Lachaume%NULL%1, Philippe%Bensaid%NULL%0, Samia%Pichard%NULL%1, Hanane%Kouider%NULL%1, Guillaume%Morelle%NULL%1, Irina%Craiu%NULL%1, Corinne%Pondarre%NULL%1, Anna%Deho%NULL%1, Arielle%Maroni%NULL%1, Mehdi%Oualha%NULL%0, Zahir%Amoura%NULL%1, Julien%Haroche%NULL%1, Juliette%Chommeloux%NULL%0, Fanny%Bajolle%NULL%0, Constance%Beyler%NULL%2, Stéphane%Bonacorsi%NULL%1, Guislaine%Carcelain%NULL%1, Isabelle%Koné-Paut%NULL%1, Brigitte%Bader-Meunier%NULL%2, Brigitte%Bader-Meunier%NULL%0, Albert%Faye%NULL%3, Albert%Faye%NULL%0, Ulrich%Meinzer%NULL%2, Caroline%Galeotti%NULL%1, Isabelle%Melki%NULL%2]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;Children were relatively spared during COVID-19 pandemic.
+ However, the recently reported hyperinflammatory syndrome with overlapping features of Kawasaki disease and toxic shock syndrome—“Paediatric Inflammatory Multisystem Syndrome-temporally associated with SARS-CoV-2” (PIMS-TS) has caused concern.
+ We describe cardiac findings and short-term outcomes in children with PIMS-TS at a tertiary children’s hospital.
+ Single-center observational study of children with PIMS-TS from 10th April to 9th May 2020. Data on ECG and echocardiogram were retrospectively analyzed along with demographics, clinical features and blood parameters.
+ Fifteen children with median age of 8.8 (IQR 6.4–11.2) years were included, all were from African/Afro-Caribbean, South Asian, Mixed or other minority ethnic groups.
+ All showed raised inflammatory/cardiac markers (CRP, ferritin, Troponin I, CK and pro-BNP).
+ Transient valve regurgitation was present in 10 patients (67%).
+ Left Ventricular ejection fraction was reduced in 12 (80%), fractional shortening in 8 (53%) with resolution in all but 2. Fourteen (93%) had coronary artery abnormalities, with normalization in 6. ECG abnormalities were present in 9 (60%) which normalized in 6 by discharge.
+ Ten (67%) needed inotropes and/or vasopressors.
+ None needed extracorporeal life support.
+ Improvement in cardiac biochemical markers was closely followed by improvement in ECG/echocardiogram.
+ All patients were discharged alive and twelve (80%) have been reviewed since.
+ Our entire cohort with PIMS-TS had cardiac involvement and this degree of involvement is significantly more than other published series and emphasizes the need for specialist cardiac review.
+ We believe that our multi-disciplinary team approach was crucial for the good short-term outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Tristan%Ramcharan%NULL%0, Oscar%Nolan%NULL%1, Chui Yi%Lai%NULL%1, Nanda%Prabhu%NULL%1, Raghu%Krishnamurthy%NULL%1, Alex G.%Richter%NULL%1, Deepthi%Jyothish%NULL%1, Hari Krishnan%Kanthimathinathan%NULL%2, Steven B.%Welch%NULL%1, Scott%Hackett%NULL%1, Eslam%Al-Abadi%NULL%1, Barnaby R.%Scholefield%NULL%1, Ashish%Chikermane%a.chikermane@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>Springer US</t>
+  </si>
+  <si>
+    <t>[Marion%Grimaud%NULL%0, Julie%Starck%NULL%0, Michael%Levy%NULL%0, Clémence%Marais%NULL%0, Judith%Chareyre%NULL%0, Diala%Khraiche%NULL%0, Marianne%Leruez-Ville%NULL%0, Pierre%Quartier%NULL%0, Pierre Louis%Léger%NULL%0, Guillaume%Geslain%NULL%0, Nada%Semaan%NULL%0, Florence%Moulin%NULL%0, Matthieu%Bendavid%NULL%0, Sandrine%Jean%NULL%0, Géraldine%Poncelet%NULL%0, Sylvain%Renolleau%NULL%0, Mehdi%Oualha%mehdi.oualha@aphp.fr%0]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In December 2019, the 2019, a novel coronavirus disease (COVID‐19) caused by severe acute respiratory syndrome coronavirus‐2 (SARS‐CoV‐2) first emerged in Wuhan, China.
+ This has now spread worldwide and was declared a pandemic by March 2020. Initially, the pediatric population was described as a low risk for severe COVID‐19. However, reports have emerged recently of cases of COVID‐19 in children with a systemic inflammatory disease, with features that overlap with Kawasaki disease (KD).
+ We describe the first 15 cases with the multi‐systeminflammatory syndrome in children (MIS‐C), temporally related to COVID‐19, who presented for care to a tertiary pediatric referral center in New York City.
+ We discuss the disproportionate burden of disease among Hispanic/Latino and Black/African American ancestry, the distinct cytokine signature across the disease spectrum (IL‐1/IL‐6), and the potential role and pathogenesis of SARS‐CoV‐2 in this new clinical entity.
+</t>
+  </si>
+  <si>
+    <t>[Mariawy%Riollano‐Cruz%NULL%0, Esra%Akkoyun%NULL%1, Eudys%Briceno‐Brito%NULL%1, Shanna%Kowalsky%NULL%0, James%Reed%NULL%1, Roberto%Posada%NULL%1, Emilia Mia%Sordillo%NULL%1, Michael%Tosi%NULL%1, Rebecca%Trachtman%NULL%0, Alberto%Paniz‐Mondolfi%Alberto.Paniz-mondolfi@mountsinai.org%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Patrick%Davies%patrick.davies@nuh.nhs.uk%0, Claire%Evans%NULL%1, Hari Krishnan%Kanthimathinathan%NULL%0, Jon%Lillie%NULL%1, Joseph%Brierley%NULL%1, Gareth%Waters%NULL%1, Mae%Johnson%NULL%1, Benedict%Griffiths%NULL%1, Pascale%du Pré%NULL%1, Zoha%Mohammad%NULL%1, Akash%Deep%NULL%1, Stephen%Playfor%NULL%1, Davinder%Singh%NULL%1, David%Inwald%NULL%1, Michelle%Jardine%NULL%1, Oliver%Ross%NULL%1, Nayan%Shetty%NULL%1, Mark%Worrall%NULL%1, Ruchi%Sinha%NULL%1, Ashwani%Koul%NULL%1, Elizabeth%Whittaker%NULL%1, Harish%Vyas%NULL%1, Barnaby R%Scholefield%NULL%1, Padmanabhan%Ramnarayan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leora R.%Feldstein%NULL%0, Erica B.%Rose%NULL%1, Steven M.%Horwitz%NULL%1, Jennifer P.%Collins%NULL%1, Margaret M.%Newhams%NULL%1, Mary Beth F.%Son%NULL%1, Jane W.%Newburger%NULL%1, Lawrence C.%Kleinman%NULL%1, Sabrina M.%Heidemann%NULL%1, Amarilis A.%Martin%NULL%2, Amarilis A.%Martin%NULL%0, Aalok R.%Singh%NULL%1, Simon%Li%NULL%1, Keiko M.%Tarquinio%NULL%1, Preeti%Jaggi%NULL%1, Matthew E.%Oster%NULL%1, Sheemon P.%Zackai%NULL%1, Jennifer%Gillen%NULL%1, Adam J.%Ratner%NULL%1, Rowan F.%Walsh%NULL%1, Julie C.%Fitzgerald%NULL%1, Michael A.%Keenaghan%NULL%1, Hussam%Alharash%NULL%1, Sule%Doymaz%NULL%1, Katharine N.%Clouser%NULL%1, John S.%Giuliano%NULL%1, Anjali%Gupta%NULL%1, Robert M.%Parker%NULL%1, Aline B.%Maddux%NULL%1, Vinod%Havalad%NULL%1, Stacy%Ramsingh%NULL%1, Hulya%Bukulmez%NULL%1, Tamara T.%Bradford%NULL%1, Lincoln S.%Smith%NULL%1, Mark W.%Tenforde%NULL%1, Christopher L.%Carroll%NULL%0, Becky J.%Riggs%NULL%1, Shira J.%Gertz%NULL%1, Ariel%Daube%NULL%1, Amanda%Lansell%NULL%2, Amanda%Lansell%NULL%0, Alvaro%Coronado Munoz%NULL%1, Charlotte V.%Hobbs%NULL%2, Charlotte V.%Hobbs%NULL%0, Kimberly L.%Marohn%NULL%1, Natasha B.%Halasa%NULL%1, Manish M.%Patel%NULL%1, Adrienne G.%Randolph%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2394,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>513</v>
+        <v>555</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -2206,10 +2406,10 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3">
@@ -2220,28 +2420,28 @@
         <v>44033.0</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>426</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -2252,25 +2452,25 @@
         <v>44033.0</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>390</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
@@ -2290,7 +2490,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -2302,10 +2502,10 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6">
@@ -2322,7 +2522,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -2334,10 +2534,10 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7">
@@ -2351,10 +2551,10 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>561</v>
       </c>
       <c r="E7" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -2366,10 +2566,10 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8">
@@ -2386,7 +2586,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -2398,10 +2598,10 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9">
@@ -2415,10 +2615,10 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>565</v>
       </c>
       <c r="E9" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2430,10 +2630,10 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10">
@@ -2450,7 +2650,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>519</v>
+        <v>568</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2462,10 +2662,10 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11">
@@ -2482,7 +2682,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2494,10 +2694,10 @@
         <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12">
@@ -2508,28 +2708,28 @@
         <v>44047.0</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>435</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
         <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>436</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2543,10 +2743,10 @@
         <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>283</v>
+        <v>572</v>
       </c>
       <c r="E13" t="s">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -2558,10 +2758,10 @@
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14">
@@ -2575,10 +2775,10 @@
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>522</v>
+        <v>575</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -2590,10 +2790,10 @@
         <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15">
@@ -2607,10 +2807,10 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="E15" t="s">
-        <v>523</v>
+        <v>578</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -2622,10 +2822,10 @@
         <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16">
@@ -2642,7 +2842,7 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>524</v>
+        <v>580</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -2654,10 +2854,10 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>556</v>
       </c>
     </row>
     <row r="17">
@@ -2674,7 +2874,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>525</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2686,10 +2886,10 @@
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18">
@@ -2706,7 +2906,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>526</v>
+        <v>581</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -2718,10 +2918,10 @@
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
